--- a/Project_Management/Sprint5/Scrum Board.xlsx
+++ b/Project_Management/Sprint5/Scrum Board.xlsx
@@ -73,13 +73,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>145903</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>428</xdr:rowOff>
+      <xdr:colOff>222109</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -93,7 +93,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12947503" cy="4938188"/>
+          <a:ext cx="13023709" cy="4686706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
